--- a/Model Group.xlsx
+++ b/Model Group.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open RO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E301B006-639A-4E43-B1B9-95CF0F44F590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65517A11-E74F-4630-A698-1DA8B5CAE9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97E4FAB4-5D8E-488B-BFDA-B5461D4EFB9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
   <si>
     <t>Model Code</t>
   </si>
@@ -381,6 +384,18 @@
   </si>
   <si>
     <t>E-ALFA MINI LOAD</t>
+  </si>
+  <si>
+    <t>GENO</t>
+  </si>
+  <si>
+    <t>GENIO</t>
+  </si>
+  <si>
+    <t>LOGN</t>
+  </si>
+  <si>
+    <t>LOGAN</t>
   </si>
 </sst>
 </file>
@@ -439,16 +454,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDCDCDC"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFDCDCDC"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFDCDCDC"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFDCDCDC"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -467,6 +482,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49024FD1-C639-42CA-95F2-498B8EA662F7}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,7 +849,7 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -843,7 +860,7 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -854,7 +871,7 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -865,7 +882,7 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -876,7 +893,7 @@
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -887,7 +904,7 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -898,7 +915,7 @@
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -909,7 +926,7 @@
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -920,7 +937,7 @@
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -931,7 +948,7 @@
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -942,7 +959,7 @@
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -953,7 +970,7 @@
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -964,7 +981,7 @@
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -975,7 +992,7 @@
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -986,7 +1003,7 @@
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -997,7 +1014,7 @@
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1008,7 +1025,7 @@
       <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1019,7 +1036,7 @@
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1030,7 +1047,7 @@
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1041,7 +1058,7 @@
       <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1052,7 +1069,7 @@
       <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1063,7 +1080,7 @@
       <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1074,7 +1091,7 @@
       <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1085,7 +1102,7 @@
       <c r="B25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1096,7 +1113,7 @@
       <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1107,7 +1124,7 @@
       <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1118,7 +1135,7 @@
       <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1129,7 +1146,7 @@
       <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1140,7 +1157,7 @@
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1151,7 +1168,7 @@
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1162,7 +1179,7 @@
       <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1173,7 +1190,7 @@
       <c r="B33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1184,7 +1201,7 @@
       <c r="B34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1195,7 +1212,7 @@
       <c r="B35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1206,7 +1223,7 @@
       <c r="B36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1217,7 +1234,7 @@
       <c r="B37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1228,7 +1245,7 @@
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1239,7 +1256,7 @@
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1250,7 +1267,7 @@
       <c r="B40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1261,7 +1278,7 @@
       <c r="B41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1272,7 +1289,7 @@
       <c r="B42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1283,7 +1300,7 @@
       <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1294,7 +1311,7 @@
       <c r="B44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1305,7 +1322,7 @@
       <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1316,7 +1333,7 @@
       <c r="B46" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1327,7 +1344,7 @@
       <c r="B47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1338,7 +1355,7 @@
       <c r="B48" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1349,7 +1366,7 @@
       <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1360,7 +1377,7 @@
       <c r="B50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1371,7 +1388,7 @@
       <c r="B51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1382,7 +1399,7 @@
       <c r="B52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1393,7 +1410,7 @@
       <c r="B53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1404,7 +1421,7 @@
       <c r="B54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1415,7 +1432,7 @@
       <c r="B55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1426,7 +1443,7 @@
       <c r="B56" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1437,8 +1454,30 @@
       <c r="B57" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Model Group.xlsx
+++ b/Model Group.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open RO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65517A11-E74F-4630-A698-1DA8B5CAE9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14639E67-D2BC-4B6D-AFF6-9524F63CB428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97E4FAB4-5D8E-488B-BFDA-B5461D4EFB9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="121">
   <si>
     <t>Model Code</t>
   </si>
@@ -396,13 +397,19 @@
   </si>
   <si>
     <t>LOGAN</t>
+  </si>
+  <si>
+    <t>ALPL</t>
+  </si>
+  <si>
+    <t>ALFA LOAD CNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +429,13 @@
       <color rgb="FF363636"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF363636"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -444,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -467,11 +481,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDCDCDC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -483,12 +512,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -818,15 +861,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49024FD1-C639-42CA-95F2-498B8EA662F7}">
-  <dimension ref="A1:C59"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -842,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -853,7 +897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -864,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -886,7 +930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -897,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -908,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -919,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -930,7 +974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -941,7 +985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -952,7 +996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -963,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -996,7 +1040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1007,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1018,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1029,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1040,7 +1084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1051,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1062,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1073,7 +1117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1084,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1106,7 +1150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1117,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -1128,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -1139,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
@@ -1161,7 +1205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
@@ -1194,7 +1238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -1216,7 +1260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
@@ -1238,7 +1282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
@@ -1249,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
@@ -1271,7 +1315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>82</v>
       </c>
@@ -1293,7 +1337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>86</v>
       </c>
@@ -1304,7 +1348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>88</v>
       </c>
@@ -1315,7 +1359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>90</v>
       </c>
@@ -1326,7 +1370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>92</v>
       </c>
@@ -1337,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>94</v>
       </c>
@@ -1348,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>96</v>
       </c>
@@ -1359,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>98</v>
       </c>
@@ -1370,7 +1414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
@@ -1403,7 +1447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>105</v>
       </c>
@@ -1414,7 +1458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
@@ -1425,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>109</v>
       </c>
@@ -1458,7 +1502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>115</v>
       </c>
@@ -1469,18 +1513,371 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>5</v>
+      <c r="C59" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C60" xr:uid="{49024FD1-C639-42CA-95F2-498B8EA662F7}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="LMM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442F3145-B83D-4568-A2BF-9EC6BE5BD2DF}">
+  <dimension ref="A1:B58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Model Group.xlsx
+++ b/Model Group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open RO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14639E67-D2BC-4B6D-AFF6-9524F63CB428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93C53DE-74A3-493A-8EB3-361DEA4519EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97E4FAB4-5D8E-488B-BFDA-B5461D4EFB9F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="125">
   <si>
     <t>Model Code</t>
   </si>
@@ -403,6 +403,18 @@
   </si>
   <si>
     <t>ALFA LOAD CNG</t>
+  </si>
+  <si>
+    <t>ESPV</t>
+  </si>
+  <si>
+    <t>E-SUPRO</t>
+  </si>
+  <si>
+    <t>E2O Plus</t>
+  </si>
+  <si>
+    <t>E2OP</t>
   </si>
 </sst>
 </file>
@@ -861,11 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49024FD1-C639-42CA-95F2-498B8EA662F7}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -908,7 +919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -930,7 +941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -941,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -952,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -963,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -974,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -985,7 +996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -996,7 +1007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1040,7 +1051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1051,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1062,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1073,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1084,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1095,7 +1106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1106,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1117,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1150,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1161,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -1172,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
@@ -1205,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
@@ -1238,7 +1249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -1260,7 +1271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
@@ -1282,7 +1293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
@@ -1293,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
@@ -1315,7 +1326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>82</v>
       </c>
@@ -1337,7 +1348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>86</v>
       </c>
@@ -1348,7 +1359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>88</v>
       </c>
@@ -1359,7 +1370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>90</v>
       </c>
@@ -1370,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>92</v>
       </c>
@@ -1381,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>94</v>
       </c>
@@ -1392,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>96</v>
       </c>
@@ -1403,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>98</v>
       </c>
@@ -1414,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
@@ -1447,7 +1458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>105</v>
       </c>
@@ -1458,7 +1469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
@@ -1469,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>109</v>
       </c>
@@ -1502,7 +1513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>115</v>
       </c>
@@ -1513,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>117</v>
       </c>
@@ -1531,18 +1542,34 @@
       <c r="B60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="4" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C60" xr:uid="{49024FD1-C639-42CA-95F2-498B8EA662F7}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="LMM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C60" xr:uid="{49024FD1-C639-42CA-95F2-498B8EA662F7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Model Group.xlsx
+++ b/Model Group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open RO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93C53DE-74A3-493A-8EB3-361DEA4519EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632E1444-D3E0-4C64-BA25-D5B3700203A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97E4FAB4-5D8E-488B-BFDA-B5461D4EFB9F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="128">
   <si>
     <t>Model Code</t>
   </si>
@@ -415,6 +415,15 @@
   </si>
   <si>
     <t>E2OP</t>
+  </si>
+  <si>
+    <t>CMPR</t>
+  </si>
+  <si>
+    <t>CAMPER</t>
+  </si>
+  <si>
+    <t>E2O</t>
   </si>
 </sst>
 </file>
@@ -512,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -527,6 +536,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -873,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49024FD1-C639-42CA-95F2-498B8EA662F7}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,13 +1557,13 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1564,12 +1574,33 @@
       <c r="B62" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C60" xr:uid="{49024FD1-C639-42CA-95F2-498B8EA662F7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
